--- a/DW.xlsx
+++ b/DW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ROA</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Curr Ratio</t>
-  </si>
-  <si>
-    <t>D E Ratio</t>
   </si>
   <si>
     <t>LTDE Ratio</t>
@@ -503,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,13 +552,10 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>0.06852162580358263</v>
@@ -587,75 +581,75 @@
       <c r="I2">
         <v>0.02538960773610653</v>
       </c>
+      <c r="J2">
+        <v>0.007510368620985196</v>
+      </c>
       <c r="K2">
-        <v>0.007510368620985196</v>
+        <v>0.027834904239413</v>
       </c>
       <c r="L2">
-        <v>0.02784296262222955</v>
+        <v>0.006653038383505758</v>
       </c>
       <c r="M2">
-        <v>0.006653038383505758</v>
+        <v>0.5475157497099862</v>
       </c>
       <c r="N2">
-        <v>0.5475157497099862</v>
+        <v>0.0152375616805186</v>
       </c>
       <c r="O2">
-        <v>0.0152375616805186</v>
+        <v>2.544131784366371</v>
       </c>
       <c r="P2">
-        <v>2.544131784366371</v>
-      </c>
-      <c r="Q2">
         <v>0.008020357051655987</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.1524775569798859</v>
+      </c>
+      <c r="E3">
+        <v>0.03236942550233749</v>
+      </c>
+      <c r="F3">
+        <v>0.1214779117292985</v>
+      </c>
+      <c r="G3">
+        <v>0.03236942550233749</v>
+      </c>
+      <c r="H3">
+        <v>0.6254162493874014</v>
+      </c>
+      <c r="I3">
+        <v>0.04609343442961112</v>
+      </c>
+      <c r="J3">
+        <v>0.04590945256714664</v>
+      </c>
+      <c r="K3">
+        <v>0.1022117789304326</v>
+      </c>
+      <c r="L3">
+        <v>0.05920440463594574</v>
+      </c>
+      <c r="M3">
+        <v>0.05005520327060274</v>
+      </c>
+      <c r="N3">
+        <v>0.08483498505673902</v>
+      </c>
+      <c r="O3">
+        <v>1.74571541911081</v>
+      </c>
+      <c r="P3">
+        <v>0.02500047994159747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1.028506643487018</v>
-      </c>
-      <c r="E3">
-        <v>0.04107162564442973</v>
-      </c>
-      <c r="F3">
-        <v>1.115929195237319</v>
-      </c>
-      <c r="G3">
-        <v>0.04107162564442973</v>
-      </c>
-      <c r="H3">
-        <v>0.2383667213403852</v>
-      </c>
-      <c r="I3">
-        <v>0.03289311265162342</v>
-      </c>
-      <c r="K3">
-        <v>0.01433813335985585</v>
-      </c>
-      <c r="L3">
-        <v>0.1641528041723364</v>
-      </c>
-      <c r="M3">
-        <v>0.001346380356930016</v>
-      </c>
-      <c r="N3">
-        <v>0.05005520327060274</v>
-      </c>
-      <c r="O3">
-        <v>0.08483498505673902</v>
-      </c>
-      <c r="P3">
-        <v>1.74571541911081</v>
-      </c>
-      <c r="Q3">
-        <v>0.001449920749110539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B4">
         <v>1.667664055213534</v>
@@ -675,81 +669,81 @@
       <c r="I4">
         <v>0.1024459518890762</v>
       </c>
+      <c r="J4">
+        <v>0.02068328550398157</v>
+      </c>
       <c r="K4">
-        <v>0.02068328550398157</v>
+        <v>0.05677112716973118</v>
       </c>
       <c r="L4">
-        <v>0.05677112716973118</v>
+        <v>0.01091154840315601</v>
       </c>
       <c r="M4">
-        <v>0.01091154840315601</v>
+        <v>0.0025080828407188</v>
       </c>
       <c r="N4">
-        <v>0.0025080828407188</v>
+        <v>0.0287216941772384</v>
       </c>
       <c r="O4">
-        <v>0.0287216941772384</v>
+        <v>1.054503731245397</v>
       </c>
       <c r="P4">
-        <v>1.054503731245397</v>
-      </c>
-      <c r="Q4">
         <v>0.002938417725634598</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0.8446727055708503</v>
+      </c>
+      <c r="C5">
+        <v>1.681426701158299</v>
+      </c>
+      <c r="D5">
+        <v>0.4604234514778779</v>
+      </c>
+      <c r="E5">
+        <v>0.2712089118038548</v>
+      </c>
+      <c r="F5">
+        <v>1.009784245089672</v>
+      </c>
+      <c r="G5">
+        <v>0.2712089118038548</v>
+      </c>
+      <c r="H5">
+        <v>1.004323471168751</v>
+      </c>
+      <c r="I5">
+        <v>0.143113861122597</v>
+      </c>
+      <c r="J5">
+        <v>0.06682952524448485</v>
+      </c>
+      <c r="K5">
+        <v>0.05519753805799357</v>
+      </c>
+      <c r="L5">
+        <v>0.01570757333152598</v>
+      </c>
+      <c r="M5">
+        <v>0.06691863702379101</v>
+      </c>
+      <c r="N5">
+        <v>0.02666620707898799</v>
+      </c>
+      <c r="O5">
+        <v>1.871140376339122</v>
+      </c>
+      <c r="P5">
+        <v>0.001280629671072152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0.7751066344358523</v>
-      </c>
-      <c r="C5">
-        <v>1.919855370677598</v>
-      </c>
-      <c r="D5">
-        <v>0.6155119770644142</v>
-      </c>
-      <c r="E5">
-        <v>0.2795716362669005</v>
-      </c>
-      <c r="F5">
-        <v>0.8573218139298784</v>
-      </c>
-      <c r="G5">
-        <v>0.2795716362669005</v>
-      </c>
-      <c r="H5">
-        <v>0.1890900060547416</v>
-      </c>
-      <c r="I5">
-        <v>0.1324511964413549</v>
-      </c>
-      <c r="K5">
-        <v>0.05872327746329396</v>
-      </c>
-      <c r="L5">
-        <v>0.138260831356939</v>
-      </c>
-      <c r="M5">
-        <v>0.02745528367777953</v>
-      </c>
-      <c r="N5">
-        <v>0.06691863702379101</v>
-      </c>
-      <c r="O5">
-        <v>0.02666620707898799</v>
-      </c>
-      <c r="P5">
-        <v>1.871140376339122</v>
-      </c>
-      <c r="Q5">
-        <v>0.001949908452259619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B6">
         <v>0.1695171805439605</v>
@@ -775,31 +769,31 @@
       <c r="I6">
         <v>0.05346493898114864</v>
       </c>
+      <c r="J6">
+        <v>0.01114612947791373</v>
+      </c>
       <c r="K6">
-        <v>0.01114612947791373</v>
+        <v>0.06049996011108771</v>
       </c>
       <c r="L6">
-        <v>0.06051569027909114</v>
+        <v>0.007133575337626086</v>
       </c>
       <c r="M6">
-        <v>0.007133575337626086</v>
+        <v>0.007655605356395704</v>
       </c>
       <c r="N6">
-        <v>0.007655605356395704</v>
+        <v>0.01224917498280318</v>
       </c>
       <c r="O6">
-        <v>0.01224917498280318</v>
+        <v>2.514362009864872</v>
       </c>
       <c r="P6">
-        <v>2.514362009864872</v>
-      </c>
-      <c r="Q6">
         <v>0.001259778569742198</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.01419431883961632</v>
@@ -825,31 +819,31 @@
       <c r="I7">
         <v>0.06143811929374184</v>
       </c>
+      <c r="J7">
+        <v>0.004959905259749889</v>
+      </c>
       <c r="K7">
-        <v>0.004959905259749889</v>
+        <v>0.02432577649651819</v>
       </c>
       <c r="L7">
-        <v>0.02434824460017547</v>
+        <v>0.003631744743655323</v>
       </c>
       <c r="M7">
-        <v>0.003631744743655323</v>
+        <v>0.004887831579236694</v>
       </c>
       <c r="N7">
-        <v>0.004887831579236694</v>
+        <v>0.002253838604421624</v>
       </c>
       <c r="O7">
-        <v>0.002253838604421624</v>
+        <v>3.051744777137413</v>
       </c>
       <c r="P7">
-        <v>3.051744777137413</v>
-      </c>
-      <c r="Q7">
         <v>0.0005733662635076714</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.05875016140845955</v>
@@ -875,231 +869,231 @@
       <c r="I8">
         <v>0.01101694265172419</v>
       </c>
+      <c r="J8">
+        <v>0.006799429178367004</v>
+      </c>
       <c r="K8">
-        <v>0.006799429178367004</v>
+        <v>0.0250035256612403</v>
       </c>
       <c r="L8">
-        <v>0.02497850409989096</v>
+        <v>0.003298369131677017</v>
       </c>
       <c r="M8">
-        <v>0.005546885960322302</v>
+        <v>0.06918509662520052</v>
       </c>
       <c r="N8">
-        <v>0.06918509662520052</v>
+        <v>0.002823963865737549</v>
       </c>
       <c r="O8">
-        <v>0.002823963865737549</v>
+        <v>2.545473427821753</v>
       </c>
       <c r="P8">
-        <v>2.545473427821753</v>
-      </c>
-      <c r="Q8">
         <v>0.001029967846105616</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0.09592481105244884</v>
+      </c>
+      <c r="C9">
+        <v>0.02921871942647825</v>
+      </c>
+      <c r="D9">
+        <v>0.04283134677227771</v>
+      </c>
+      <c r="E9">
+        <v>0.02296059270193317</v>
+      </c>
+      <c r="F9">
+        <v>0.09526593842571036</v>
+      </c>
+      <c r="G9">
+        <v>0.02296059270193317</v>
+      </c>
+      <c r="H9">
+        <v>0.04116925865541327</v>
+      </c>
+      <c r="I9">
+        <v>0.01745513073745038</v>
+      </c>
+      <c r="J9">
+        <v>0.02282006271567749</v>
+      </c>
+      <c r="K9">
+        <v>0.02290893359209735</v>
+      </c>
+      <c r="L9">
+        <v>0.003104497949023777</v>
+      </c>
+      <c r="M9">
+        <v>0.01859303460327378</v>
+      </c>
+      <c r="N9">
+        <v>0.003646936817020137</v>
+      </c>
+      <c r="O9">
+        <v>2.344926288433171</v>
+      </c>
+      <c r="P9">
+        <v>0.00219343450256448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.05302582776035163</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.01859303460327378</v>
-      </c>
-      <c r="O9">
-        <v>0.003646936817020137</v>
-      </c>
-      <c r="P9">
-        <v>2.344926288433171</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>0.1725006609812226</v>
+      </c>
+      <c r="C10">
+        <v>0.03242284798158426</v>
+      </c>
+      <c r="D10">
+        <v>0.02059509182968284</v>
+      </c>
+      <c r="E10">
+        <v>0.01422228704358695</v>
+      </c>
+      <c r="F10">
+        <v>0.1514675774627447</v>
+      </c>
+      <c r="G10">
+        <v>0.01422228704358695</v>
+      </c>
+      <c r="H10">
+        <v>0.1158638072053567</v>
+      </c>
+      <c r="I10">
+        <v>0.02136254412532208</v>
+      </c>
+      <c r="J10">
+        <v>0.01982694015789762</v>
+      </c>
+      <c r="K10">
+        <v>0.0224905658103088</v>
+      </c>
+      <c r="L10">
+        <v>0.01743639596863309</v>
+      </c>
+      <c r="M10">
+        <v>0.01585079889462274</v>
+      </c>
+      <c r="N10">
+        <v>0.0241116872710382</v>
+      </c>
+      <c r="O10">
+        <v>2.468278504326115</v>
+      </c>
+      <c r="P10">
+        <v>0.01257370242715001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
-        <v>0.3525453589761112</v>
-      </c>
-      <c r="C10">
-        <v>0.06057267414669544</v>
-      </c>
-      <c r="D10">
-        <v>0.03220155192542569</v>
-      </c>
-      <c r="E10">
-        <v>0.01995453680273996</v>
-      </c>
-      <c r="F10">
-        <v>0.2528970490852349</v>
-      </c>
-      <c r="G10">
-        <v>0.01995453680273996</v>
-      </c>
-      <c r="H10">
-        <v>0.1496714913473582</v>
-      </c>
-      <c r="I10">
-        <v>0.02587787655479672</v>
-      </c>
-      <c r="K10">
-        <v>0.01249314495534169</v>
-      </c>
-      <c r="L10">
-        <v>0.01887271878608571</v>
-      </c>
-      <c r="M10">
-        <v>0.01745592751579118</v>
-      </c>
-      <c r="N10">
-        <v>0.01585079889462274</v>
-      </c>
-      <c r="O10">
-        <v>0.0241116872710382</v>
-      </c>
-      <c r="P10">
-        <v>2.468278504326115</v>
-      </c>
-      <c r="Q10">
-        <v>0.007273065370303962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>0.06346995572114482</v>
+      </c>
+      <c r="C11">
+        <v>0.0293714306690043</v>
+      </c>
+      <c r="D11">
+        <v>0.03748686515244216</v>
+      </c>
+      <c r="E11">
+        <v>0.01900835402687535</v>
+      </c>
+      <c r="F11">
+        <v>0.05623023435650799</v>
+      </c>
+      <c r="G11">
+        <v>0.01900835402687535</v>
+      </c>
+      <c r="H11">
+        <v>0.06591419844550422</v>
+      </c>
+      <c r="I11">
+        <v>0.08344551522440456</v>
+      </c>
+      <c r="J11">
+        <v>0.01671167375684228</v>
+      </c>
+      <c r="K11">
+        <v>0.05422537101371879</v>
+      </c>
+      <c r="L11">
+        <v>0.02889856699799894</v>
+      </c>
+      <c r="M11">
+        <v>0.2244664701531347</v>
+      </c>
+      <c r="N11">
+        <v>0.01558563491327719</v>
+      </c>
+      <c r="O11">
+        <v>2.165711742912882</v>
+      </c>
+      <c r="P11">
+        <v>0.01224617393523544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>0.3195439851035156</v>
-      </c>
-      <c r="C11">
-        <v>0.06725543769528809</v>
-      </c>
-      <c r="D11">
-        <v>0.087410524379831</v>
-      </c>
-      <c r="E11">
-        <v>0.02656014902000143</v>
-      </c>
-      <c r="F11">
-        <v>0.2318671195099447</v>
-      </c>
-      <c r="G11">
-        <v>0.02656014902000143</v>
-      </c>
-      <c r="H11">
-        <v>0.06902288159974443</v>
-      </c>
-      <c r="I11">
-        <v>0.02714740678633835</v>
-      </c>
-      <c r="K11">
-        <v>0.03013430937516603</v>
-      </c>
-      <c r="L11">
-        <v>0.05122747939629724</v>
-      </c>
-      <c r="M11">
-        <v>0.02905919339956854</v>
-      </c>
-      <c r="N11">
-        <v>0.2244664701531347</v>
-      </c>
-      <c r="O11">
-        <v>0.01558563491327719</v>
-      </c>
-      <c r="P11">
-        <v>2.165711742912882</v>
-      </c>
-      <c r="Q11">
-        <v>0.01618782235070229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
+      <c r="B12">
+        <v>0.08984239133062469</v>
+      </c>
+      <c r="C12">
+        <v>0.1002773791725268</v>
+      </c>
+      <c r="D12">
+        <v>0.02658307339829049</v>
+      </c>
+      <c r="E12">
+        <v>0.01735967270971799</v>
+      </c>
+      <c r="F12">
+        <v>0.06324612657290718</v>
+      </c>
+      <c r="G12">
+        <v>0.01735967270971799</v>
+      </c>
+      <c r="H12">
+        <v>0.03044233024375093</v>
+      </c>
+      <c r="I12">
+        <v>0.07950205271182081</v>
+      </c>
+      <c r="J12">
+        <v>0.01265042774207068</v>
+      </c>
+      <c r="K12">
+        <v>0.0308024155464054</v>
+      </c>
+      <c r="L12">
+        <v>0.0142153449192846</v>
+      </c>
+      <c r="M12">
+        <v>0.00869279714939431</v>
+      </c>
+      <c r="N12">
+        <v>0.0126350241001302</v>
+      </c>
+      <c r="O12">
+        <v>0.8738628548528855</v>
+      </c>
+      <c r="P12">
+        <v>0.006461299886396994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B12">
-        <v>0.04001035435052235</v>
-      </c>
-      <c r="C12">
-        <v>0.198502849068915</v>
-      </c>
-      <c r="D12">
-        <v>0.04927188383774407</v>
-      </c>
-      <c r="E12">
-        <v>0.01110344842734121</v>
-      </c>
-      <c r="F12">
-        <v>0.06289300982075577</v>
-      </c>
-      <c r="G12">
-        <v>0.01110344842734121</v>
-      </c>
-      <c r="H12">
-        <v>0.01290975015080723</v>
-      </c>
-      <c r="I12">
-        <v>0.02430141099813666</v>
-      </c>
-      <c r="K12">
-        <v>0.01020224956631753</v>
-      </c>
-      <c r="L12">
-        <v>0.02684236661814943</v>
-      </c>
-      <c r="M12">
-        <v>0.01530461015675495</v>
-      </c>
-      <c r="N12">
-        <v>0.00869279714939431</v>
-      </c>
-      <c r="O12">
-        <v>0.0126350241001302</v>
-      </c>
-      <c r="P12">
-        <v>0.8738628548528855</v>
-      </c>
-      <c r="Q12">
-        <v>0.001686923329787922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B13">
         <v>0.9312622836198767</v>
@@ -1125,228 +1119,225 @@
       <c r="I13">
         <v>0.1013073323728385</v>
       </c>
+      <c r="J13">
+        <v>0.1349971868118575</v>
+      </c>
       <c r="K13">
-        <v>0.1349971868118575</v>
+        <v>0.07607868425243158</v>
       </c>
       <c r="L13">
-        <v>0.07607329319372784</v>
+        <v>0.08920326274929832</v>
       </c>
       <c r="M13">
-        <v>0.08920326274929832</v>
+        <v>0.4013604869569403</v>
       </c>
       <c r="N13">
-        <v>0.4013604869569403</v>
+        <v>0.0235247135129557</v>
       </c>
       <c r="O13">
-        <v>0.0235247135129557</v>
+        <v>1.178208446514266</v>
       </c>
       <c r="P13">
-        <v>1.178208446514266</v>
-      </c>
-      <c r="Q13">
         <v>0.02116156188708735</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>0.1292521388683078</v>
+      </c>
+      <c r="C14">
+        <v>0.8120737310968063</v>
+      </c>
+      <c r="D14">
+        <v>0.04286938034068666</v>
+      </c>
+      <c r="E14">
+        <v>0.01428911404828045</v>
+      </c>
+      <c r="F14">
+        <v>0.08121434502184759</v>
+      </c>
+      <c r="G14">
+        <v>0.01428911354344975</v>
+      </c>
+      <c r="H14">
+        <v>0.6219092767717516</v>
+      </c>
+      <c r="I14">
+        <v>0.05573085553517215</v>
+      </c>
+      <c r="J14">
+        <v>0.04678389788853209</v>
+      </c>
+      <c r="K14">
+        <v>0.8454763186969626</v>
+      </c>
+      <c r="L14">
+        <v>0.04390928694261132</v>
+      </c>
+      <c r="M14">
+        <v>0.2847050616450496</v>
+      </c>
+      <c r="N14">
+        <v>0.01853453182739531</v>
+      </c>
+      <c r="O14">
+        <v>0.7950821797122428</v>
+      </c>
+      <c r="P14">
+        <v>0.14105203497234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
-        <v>0.3433291675062888</v>
-      </c>
-      <c r="C14">
-        <v>0.6508844203523415</v>
-      </c>
-      <c r="D14">
-        <v>0.06482476068392493</v>
-      </c>
-      <c r="E14">
-        <v>0.07579829765183932</v>
-      </c>
-      <c r="F14">
-        <v>0.4072479240656846</v>
-      </c>
-      <c r="G14">
-        <v>0.07579829765183932</v>
-      </c>
-      <c r="H14">
-        <v>0.2336012383634457</v>
-      </c>
-      <c r="I14">
-        <v>0.004109784861950153</v>
-      </c>
-      <c r="J14">
-        <v>1.000002934608835</v>
-      </c>
-      <c r="K14">
-        <v>0.02695242621829297</v>
-      </c>
-      <c r="L14">
-        <v>0.9081401097594749</v>
-      </c>
-      <c r="M14">
-        <v>0.0394746827825196</v>
-      </c>
-      <c r="N14">
-        <v>0.2847050616450496</v>
-      </c>
-      <c r="O14">
-        <v>0.01853453182739531</v>
-      </c>
-      <c r="P14">
-        <v>0.7950821797122428</v>
-      </c>
-      <c r="Q14">
-        <v>0.3356351681440401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+      <c r="B15">
+        <v>0.6354292612380877</v>
+      </c>
+      <c r="E15">
+        <v>0.04957443226464013</v>
+      </c>
+      <c r="F15">
+        <v>0.6545252210845991</v>
+      </c>
+      <c r="G15">
+        <v>0.04957443226464013</v>
+      </c>
+      <c r="H15">
+        <v>1.941168342349857</v>
+      </c>
+      <c r="I15">
+        <v>0.08465965139922968</v>
+      </c>
+      <c r="J15">
+        <v>0.01537761561853626</v>
+      </c>
+      <c r="K15">
+        <v>0.05526282964351351</v>
+      </c>
+      <c r="L15">
+        <v>0.008829601496548113</v>
+      </c>
+      <c r="M15">
+        <v>0.005027400780286738</v>
+      </c>
+      <c r="N15">
+        <v>0.08083152989244727</v>
+      </c>
+      <c r="O15">
+        <v>1.634174421230184</v>
+      </c>
+      <c r="P15">
+        <v>0.002390698172484849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>0.6267978734499726</v>
-      </c>
-      <c r="E15">
-        <v>0.04574204603711146</v>
-      </c>
-      <c r="F15">
-        <v>0.645159957307084</v>
-      </c>
-      <c r="G15">
-        <v>0.04574204603711146</v>
-      </c>
-      <c r="H15">
-        <v>0.01281508231340873</v>
-      </c>
-      <c r="I15">
-        <v>0.06960424508951694</v>
-      </c>
-      <c r="K15">
-        <v>0.005664993325386397</v>
-      </c>
-      <c r="L15">
-        <v>0.04634239547836447</v>
-      </c>
-      <c r="M15">
-        <v>0.009310374224816452</v>
-      </c>
-      <c r="N15">
-        <v>0.005027400780286738</v>
-      </c>
-      <c r="O15">
-        <v>0.08083152989244727</v>
-      </c>
-      <c r="P15">
-        <v>1.634174421230184</v>
-      </c>
-      <c r="Q15">
-        <v>0.002263891987784164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+      <c r="B16">
+        <v>0.06988184048744271</v>
+      </c>
+      <c r="C16">
+        <v>0.06528244866630312</v>
+      </c>
+      <c r="D16">
+        <v>0.0167301717392441</v>
+      </c>
+      <c r="E16">
+        <v>0.01233405876675053</v>
+      </c>
+      <c r="F16">
+        <v>0.06497854565171357</v>
+      </c>
+      <c r="G16">
+        <v>0.01233405876675053</v>
+      </c>
+      <c r="H16">
+        <v>0.1764353243334714</v>
+      </c>
+      <c r="I16">
+        <v>0.06080307549370157</v>
+      </c>
+      <c r="J16">
+        <v>0.01439857026785842</v>
+      </c>
+      <c r="K16">
+        <v>0.09381218332980083</v>
+      </c>
+      <c r="L16">
+        <v>0.02786943272080066</v>
+      </c>
+      <c r="M16">
+        <v>0.04838942300100144</v>
+      </c>
+      <c r="N16">
+        <v>0.03213766178669539</v>
+      </c>
+      <c r="O16">
+        <v>2.357874474484656</v>
+      </c>
+      <c r="P16">
+        <v>0.03042826367479462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <v>0.2963900189229006</v>
-      </c>
-      <c r="C16">
-        <v>0.1473330078642584</v>
-      </c>
-      <c r="D16">
-        <v>0.01075032996113797</v>
-      </c>
-      <c r="E16">
-        <v>0.01966960557854228</v>
-      </c>
-      <c r="F16">
-        <v>0.2688224180091889</v>
-      </c>
-      <c r="G16">
-        <v>0.01966960557854228</v>
-      </c>
-      <c r="H16">
-        <v>0.2482794532670332</v>
-      </c>
-      <c r="I16">
-        <v>0.02799580601045263</v>
-      </c>
-      <c r="K16">
-        <v>0.02426558047001378</v>
-      </c>
-      <c r="L16">
-        <v>0.09435868791025653</v>
-      </c>
-      <c r="M16">
-        <v>0.02071291733253693</v>
-      </c>
-      <c r="N16">
-        <v>0.04838942300100144</v>
-      </c>
-      <c r="O16">
-        <v>0.03213766178669539</v>
-      </c>
-      <c r="P16">
-        <v>2.357874474484656</v>
-      </c>
-      <c r="Q16">
-        <v>0.01123843371001326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="B17">
+        <v>0.3978486085867579</v>
+      </c>
+      <c r="C17">
+        <v>0.2094137758358184</v>
+      </c>
+      <c r="D17">
+        <v>0.04136713415003039</v>
+      </c>
+      <c r="E17">
+        <v>0.01074824098460102</v>
+      </c>
+      <c r="F17">
+        <v>0.3029908867719685</v>
+      </c>
+      <c r="G17">
+        <v>0.01074824098460102</v>
+      </c>
+      <c r="H17">
+        <v>0.04387640938428429</v>
+      </c>
+      <c r="I17">
+        <v>0.1002020992430928</v>
+      </c>
+      <c r="J17">
+        <v>0.1434153969800436</v>
+      </c>
+      <c r="K17">
+        <v>0.05479190800131208</v>
+      </c>
+      <c r="L17">
+        <v>0.04741637147836201</v>
+      </c>
+      <c r="M17">
+        <v>0.01534534149408693</v>
+      </c>
+      <c r="N17">
+        <v>0.05678402165676483</v>
+      </c>
+      <c r="O17">
+        <v>1.884382391977431</v>
+      </c>
+      <c r="P17">
+        <v>0.01560660513401172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17">
-        <v>1.242992672348789</v>
-      </c>
-      <c r="C17">
-        <v>0.4426783847571163</v>
-      </c>
-      <c r="D17">
-        <v>0.06764296941964004</v>
-      </c>
-      <c r="E17">
-        <v>0.02990964307148681</v>
-      </c>
-      <c r="F17">
-        <v>1.340752149243019</v>
-      </c>
-      <c r="G17">
-        <v>0.02990964307148681</v>
-      </c>
-      <c r="H17">
-        <v>0.0606445632846171</v>
-      </c>
-      <c r="I17">
-        <v>0.07804271651924079</v>
-      </c>
-      <c r="K17">
-        <v>0.2443956582412557</v>
-      </c>
-      <c r="L17">
-        <v>0.05091852204579631</v>
-      </c>
-      <c r="M17">
-        <v>0.04826689463066168</v>
-      </c>
-      <c r="N17">
-        <v>0.01534534149408693</v>
-      </c>
-      <c r="O17">
-        <v>0.05678402165676483</v>
-      </c>
-      <c r="P17">
-        <v>1.884382391977431</v>
-      </c>
-      <c r="Q17">
-        <v>0.008420286334851097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B18">
         <v>0.6245187036189552</v>
@@ -1372,31 +1363,31 @@
       <c r="I18">
         <v>0.1441160440779896</v>
       </c>
+      <c r="J18">
+        <v>0.02479605445663627</v>
+      </c>
       <c r="K18">
-        <v>0.02479605445663627</v>
+        <v>0.05598422676702593</v>
       </c>
       <c r="L18">
-        <v>0.05705335876714238</v>
+        <v>0.02446367739570756</v>
       </c>
       <c r="M18">
-        <v>0.02446367739570756</v>
+        <v>0.03185436053542344</v>
       </c>
       <c r="N18">
-        <v>0.03185436053542344</v>
+        <v>0.03900746212124381</v>
       </c>
       <c r="O18">
-        <v>0.03995475736563499</v>
+        <v>2.303304279027844</v>
       </c>
       <c r="P18">
-        <v>2.303304279027844</v>
-      </c>
-      <c r="Q18">
         <v>0.002135021099431051</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>1.115392287387161</v>
@@ -1411,92 +1402,92 @@
         <v>0.02659565843459864</v>
       </c>
       <c r="F19">
-        <v>0.8055634681145679</v>
+        <v>0.7589876141363422</v>
       </c>
       <c r="G19">
-        <v>0.07585112240312292</v>
+        <v>0.02659565843459864</v>
       </c>
       <c r="H19">
         <v>1.046344332203529</v>
       </c>
       <c r="I19">
-        <v>0.07401338809911572</v>
+        <v>0.03851913315102472</v>
+      </c>
+      <c r="J19">
+        <v>0.02578150163865335</v>
       </c>
       <c r="K19">
-        <v>0.02578150163865335</v>
+        <v>0.1189304829811915</v>
       </c>
       <c r="L19">
-        <v>0.1185401928768536</v>
+        <v>0.03548390017653851</v>
       </c>
       <c r="M19">
-        <v>0.03548390017653851</v>
+        <v>0.08485107435933509</v>
       </c>
       <c r="N19">
-        <v>0.08485107435933509</v>
+        <v>0.02582516522659324</v>
       </c>
       <c r="O19">
-        <v>0.02582516522659324</v>
+        <v>2.675401268216993</v>
       </c>
       <c r="P19">
-        <v>2.675401268216993</v>
-      </c>
-      <c r="Q19">
-        <v>0.02949808863064078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.0227896943170617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0.03628185064063106</v>
+      </c>
+      <c r="C20">
+        <v>0.02233781741041621</v>
+      </c>
+      <c r="D20">
+        <v>0.01847586561286857</v>
+      </c>
+      <c r="E20">
+        <v>0.0122362612869109</v>
+      </c>
+      <c r="F20">
+        <v>0.02137394668811233</v>
+      </c>
+      <c r="G20">
+        <v>0.0122362612869109</v>
+      </c>
+      <c r="H20">
+        <v>0.2934899736766404</v>
+      </c>
+      <c r="I20">
+        <v>0.02978872185691379</v>
+      </c>
+      <c r="J20">
+        <v>0.01265862234895759</v>
+      </c>
+      <c r="K20">
+        <v>0.06466982708467611</v>
+      </c>
+      <c r="L20">
+        <v>0.05160182126256878</v>
+      </c>
+      <c r="M20">
+        <v>0.06851275506409499</v>
+      </c>
+      <c r="N20">
+        <v>0.03402631471667541</v>
+      </c>
+      <c r="O20">
+        <v>2.50903202499004</v>
+      </c>
+      <c r="P20">
+        <v>0.02036207257946883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B20">
-        <v>0.02810846040990342</v>
-      </c>
-      <c r="C20">
-        <v>0.01918672828333385</v>
-      </c>
-      <c r="D20">
-        <v>0.01808780023678429</v>
-      </c>
-      <c r="E20">
-        <v>0.008360933280133183</v>
-      </c>
-      <c r="F20">
-        <v>0.1841600063527582</v>
-      </c>
-      <c r="G20">
-        <v>0.06890625662494287</v>
-      </c>
-      <c r="H20">
-        <v>0.1795727874705987</v>
-      </c>
-      <c r="I20">
-        <v>0.02988070539945384</v>
-      </c>
-      <c r="K20">
-        <v>0.01008553601338681</v>
-      </c>
-      <c r="L20">
-        <v>0.1039429190754535</v>
-      </c>
-      <c r="M20">
-        <v>0.07139750472176175</v>
-      </c>
-      <c r="N20">
-        <v>0.06851275506409499</v>
-      </c>
-      <c r="O20">
-        <v>0.03402631471667541</v>
-      </c>
-      <c r="P20">
-        <v>2.50903202499004</v>
-      </c>
-      <c r="Q20">
-        <v>0.06262254531160899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B21">
         <v>0.5514682080731927</v>
@@ -1522,31 +1513,31 @@
       <c r="I21">
         <v>0.08766339951069113</v>
       </c>
+      <c r="J21">
+        <v>0.08339487951928362</v>
+      </c>
       <c r="K21">
-        <v>0.08339487951928362</v>
+        <v>0.0614580482092828</v>
       </c>
       <c r="L21">
-        <v>0.06145420771053954</v>
+        <v>0.01970938910131205</v>
       </c>
       <c r="M21">
-        <v>0.01970938910131205</v>
+        <v>0.0133469933077976</v>
       </c>
       <c r="N21">
-        <v>0.0133469933077976</v>
+        <v>0.03700529504741166</v>
       </c>
       <c r="O21">
-        <v>0.03700529504741166</v>
+        <v>2.90551294829178</v>
       </c>
       <c r="P21">
-        <v>2.90551294829178</v>
-      </c>
-      <c r="Q21">
         <v>0.02929895536943703</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0.07939623969965898</v>
@@ -1572,31 +1563,31 @@
       <c r="I22">
         <v>0.0364899325399098</v>
       </c>
+      <c r="J22">
+        <v>0.02370667181412687</v>
+      </c>
       <c r="K22">
-        <v>0.02370667181412687</v>
+        <v>0.04315126760927141</v>
       </c>
       <c r="L22">
-        <v>0.0431661273872975</v>
+        <v>0.004624926643426482</v>
       </c>
       <c r="M22">
-        <v>0.004624926643426482</v>
+        <v>0.01169773594828876</v>
       </c>
       <c r="N22">
-        <v>0.01169773594828876</v>
+        <v>0.002627317642737907</v>
       </c>
       <c r="O22">
-        <v>0.002627317642737907</v>
+        <v>3.065023359445839</v>
       </c>
       <c r="P22">
-        <v>3.116681743844206</v>
-      </c>
-      <c r="Q22">
         <v>0.004432865228747436</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.1800263330842799</v>
@@ -1622,184 +1613,181 @@
       <c r="I23">
         <v>0.07229941586619558</v>
       </c>
+      <c r="J23">
+        <v>0.08358635602774116</v>
+      </c>
       <c r="K23">
-        <v>0.08358635602774116</v>
+        <v>0.04178075544474427</v>
       </c>
       <c r="L23">
-        <v>0.04187213370562482</v>
+        <v>0.008776703090847632</v>
       </c>
       <c r="M23">
-        <v>0.008776703090847632</v>
+        <v>0.007135019883939251</v>
       </c>
       <c r="N23">
-        <v>0.007135019883939251</v>
+        <v>0.02081962930655729</v>
       </c>
       <c r="O23">
-        <v>0.02081962930655729</v>
+        <v>2.540539610664951</v>
       </c>
       <c r="P23">
-        <v>2.540539610664951</v>
-      </c>
-      <c r="Q23">
         <v>0.006411694849834125</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>0.02847070594757165</v>
+      </c>
+      <c r="C24">
+        <v>0.01020668419298509</v>
+      </c>
+      <c r="D24">
+        <v>0.0119341193093643</v>
+      </c>
+      <c r="E24">
+        <v>0.004822884933761745</v>
+      </c>
+      <c r="F24">
+        <v>0.03192363841173537</v>
+      </c>
+      <c r="G24">
+        <v>0.004822884933761745</v>
+      </c>
+      <c r="H24">
+        <v>0.02317604133139644</v>
+      </c>
+      <c r="I24">
+        <v>0.04613040662598002</v>
+      </c>
+      <c r="J24">
+        <v>0.01343100198134019</v>
+      </c>
+      <c r="K24">
+        <v>0.01467101723886515</v>
+      </c>
+      <c r="L24">
+        <v>0.005994917756992601</v>
+      </c>
+      <c r="M24">
+        <v>0.00755823953293858</v>
+      </c>
+      <c r="N24">
+        <v>0.003376718573061873</v>
+      </c>
+      <c r="O24">
+        <v>2.161440236696071</v>
+      </c>
+      <c r="P24">
+        <v>0.003122792275620128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
-        <v>0.02765191556514399</v>
-      </c>
-      <c r="C24">
-        <v>0.009154728370825331</v>
-      </c>
-      <c r="D24">
-        <v>0.007175820580972621</v>
-      </c>
-      <c r="E24">
-        <v>0.003308907985620437</v>
-      </c>
-      <c r="F24">
-        <v>0.05468474531977019</v>
-      </c>
-      <c r="G24">
-        <v>0.003308907985620437</v>
-      </c>
-      <c r="H24">
-        <v>0.02942648621501935</v>
-      </c>
-      <c r="I24">
-        <v>0.03034148792546078</v>
-      </c>
-      <c r="K24">
-        <v>0.02800089799607182</v>
-      </c>
-      <c r="L24">
-        <v>0.0138103426381234</v>
-      </c>
-      <c r="M24">
-        <v>0.006310053741824781</v>
-      </c>
-      <c r="N24">
-        <v>0.00755823953293858</v>
-      </c>
-      <c r="O24">
-        <v>0.003376718573061873</v>
-      </c>
-      <c r="P24">
-        <v>2.161440236696071</v>
-      </c>
-      <c r="Q24">
-        <v>0.004894780318275985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
+      <c r="B25">
+        <v>0.5262918939626293</v>
+      </c>
+      <c r="C25">
+        <v>0.05805361308656765</v>
+      </c>
+      <c r="D25">
+        <v>0.02554742950161175</v>
+      </c>
+      <c r="E25">
+        <v>0.009237128761350015</v>
+      </c>
+      <c r="F25">
+        <v>0.45470142843251</v>
+      </c>
+      <c r="G25">
+        <v>0.009237128761350015</v>
+      </c>
+      <c r="H25">
+        <v>0.1074249910240071</v>
+      </c>
+      <c r="I25">
+        <v>0.05638310297309838</v>
+      </c>
+      <c r="J25">
+        <v>0.6524099423490618</v>
+      </c>
+      <c r="K25">
+        <v>0.34021900275402</v>
+      </c>
+      <c r="L25">
+        <v>0.04429186274067133</v>
+      </c>
+      <c r="M25">
+        <v>0.1616009136637454</v>
+      </c>
+      <c r="N25">
+        <v>0.04358453301126845</v>
+      </c>
+      <c r="O25">
+        <v>2.364666924762132</v>
+      </c>
+      <c r="P25">
+        <v>0.02242232317959739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
-        <v>1.573226497884059</v>
-      </c>
-      <c r="C25">
-        <v>0.0912871420457263</v>
-      </c>
-      <c r="D25">
-        <v>0.08025495194469466</v>
-      </c>
-      <c r="E25">
-        <v>0.06467191779032089</v>
-      </c>
-      <c r="F25">
-        <v>1.721361960158774</v>
-      </c>
-      <c r="G25">
-        <v>0.06467191779032089</v>
-      </c>
-      <c r="H25">
-        <v>0.2025229085132982</v>
-      </c>
-      <c r="I25">
-        <v>0.0283062666745342</v>
-      </c>
-      <c r="K25">
-        <v>0.6746513477809762</v>
-      </c>
-      <c r="L25">
-        <v>0.39620595598068</v>
-      </c>
-      <c r="M25">
-        <v>0.1058119133935336</v>
-      </c>
-      <c r="N25">
-        <v>0.1616009136637454</v>
-      </c>
-      <c r="O25">
-        <v>0.04358453301126845</v>
-      </c>
-      <c r="P25">
-        <v>2.364666924762132</v>
-      </c>
-      <c r="Q25">
-        <v>0.07984333681699296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
+      <c r="B26">
+        <v>0.8676758807321486</v>
+      </c>
+      <c r="C26">
+        <v>0.8474381620971205</v>
+      </c>
+      <c r="D26">
+        <v>0.4453264842776942</v>
+      </c>
+      <c r="E26">
+        <v>0.06014916651688983</v>
+      </c>
+      <c r="F26">
+        <v>1.12469986369038</v>
+      </c>
+      <c r="G26">
+        <v>0.08455536113352687</v>
+      </c>
+      <c r="H26">
+        <v>0.173692685726011</v>
+      </c>
+      <c r="I26">
+        <v>0.066590669509776</v>
+      </c>
+      <c r="J26">
+        <v>0.180026783562478</v>
+      </c>
+      <c r="K26">
+        <v>0.1168256320002218</v>
+      </c>
+      <c r="L26">
+        <v>0.1229369969972102</v>
+      </c>
+      <c r="M26">
+        <v>0.1046390526153795</v>
+      </c>
+      <c r="N26">
+        <v>0.09551783429609842</v>
+      </c>
+      <c r="O26">
+        <v>2.490583845422617</v>
+      </c>
+      <c r="P26">
+        <v>0.07600325600105451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B26">
-        <v>1.067790117058086</v>
-      </c>
-      <c r="C26">
-        <v>1.891547065862562</v>
-      </c>
-      <c r="D26">
-        <v>0.1549642354557467</v>
-      </c>
-      <c r="E26">
-        <v>0.07726416719191205</v>
-      </c>
-      <c r="F26">
-        <v>0.9010166931036679</v>
-      </c>
-      <c r="G26">
-        <v>0.07597199104163439</v>
-      </c>
-      <c r="H26">
-        <v>0.2439371538429598</v>
-      </c>
-      <c r="I26">
-        <v>0.04179167862916093</v>
-      </c>
-      <c r="J26">
-        <v>0.3354163464379933</v>
-      </c>
-      <c r="K26">
-        <v>0.2767292507739124</v>
-      </c>
-      <c r="L26">
-        <v>0.108652401824007</v>
-      </c>
-      <c r="M26">
-        <v>0.1042594893365885</v>
-      </c>
-      <c r="N26">
-        <v>0.1046390526153795</v>
-      </c>
-      <c r="O26">
-        <v>0.09551783429609842</v>
-      </c>
-      <c r="P26">
-        <v>2.490583845422617</v>
-      </c>
-      <c r="Q26">
-        <v>0.09951956182216116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B27">
         <v>0.008264490199650214</v>
@@ -1822,126 +1810,123 @@
       <c r="I27">
         <v>0.098000799427399</v>
       </c>
+      <c r="J27">
+        <v>0.01572049120563321</v>
+      </c>
       <c r="K27">
-        <v>0.01572049120563321</v>
+        <v>0.05343042869281628</v>
       </c>
       <c r="L27">
-        <v>0.05242419489441741</v>
+        <v>0.01244334183180704</v>
       </c>
       <c r="M27">
-        <v>0.01244334183180704</v>
+        <v>0.008937171524381031</v>
       </c>
       <c r="N27">
-        <v>0.008937171524381031</v>
-      </c>
-      <c r="O27">
         <v>0.01722667103092092</v>
       </c>
-      <c r="Q27">
+      <c r="P27">
         <v>0.001303398533218135</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>1.124127908701418</v>
+      </c>
+      <c r="C28">
+        <v>1.487659288690699</v>
+      </c>
+      <c r="D28">
+        <v>0.03165456750283965</v>
+      </c>
+      <c r="E28">
+        <v>0.01164806304724935</v>
+      </c>
+      <c r="F28">
+        <v>1.042157423716931</v>
+      </c>
+      <c r="G28">
+        <v>0.008553913230310038</v>
+      </c>
+      <c r="H28">
+        <v>0.08380460588426815</v>
+      </c>
+      <c r="I28">
+        <v>0.2204889972515466</v>
+      </c>
+      <c r="J28">
+        <v>2.16915855660361</v>
+      </c>
+      <c r="K28">
+        <v>0.2593293357812957</v>
+      </c>
+      <c r="L28">
+        <v>0.1810583601333429</v>
+      </c>
+      <c r="M28">
+        <v>0.02065427132403613</v>
+      </c>
+      <c r="N28">
+        <v>0.05398103787804067</v>
+      </c>
+      <c r="O28">
+        <v>2.773547315042446</v>
+      </c>
+      <c r="P28">
+        <v>0.03771114910775899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
-        <v>1.806902281567664</v>
-      </c>
-      <c r="C28">
-        <v>1.583231252022284</v>
-      </c>
-      <c r="D28">
-        <v>0.01246665176490771</v>
-      </c>
-      <c r="E28">
-        <v>0.01271025757726681</v>
-      </c>
-      <c r="F28">
-        <v>1.868515581531131</v>
-      </c>
-      <c r="G28">
-        <v>0.007229848271907632</v>
-      </c>
-      <c r="H28">
-        <v>0.03527196694539663</v>
-      </c>
-      <c r="I28">
-        <v>0.02107784876840208</v>
-      </c>
-      <c r="J28">
-        <v>2.325566228651006</v>
-      </c>
-      <c r="K28">
-        <v>2.273906224291754</v>
-      </c>
-      <c r="L28">
-        <v>0.1425183917951832</v>
-      </c>
-      <c r="M28">
-        <v>0.1807209740498379</v>
-      </c>
-      <c r="N28">
-        <v>0.02065427132403613</v>
-      </c>
-      <c r="O28">
-        <v>0.05398103787804067</v>
-      </c>
-      <c r="P28">
-        <v>2.773547315042446</v>
-      </c>
-      <c r="Q28">
-        <v>0.01513890540165656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B29">
-        <v>0.01535635649430652</v>
+        <v>0.2746418148991014</v>
       </c>
       <c r="C29">
-        <v>0.03036972635084004</v>
+        <v>0.2337698561355419</v>
       </c>
       <c r="D29">
-        <v>0.008396131633846258</v>
+        <v>0.006525646562496829</v>
       </c>
       <c r="E29">
-        <v>0.001025741442042693</v>
+        <v>0.001656248084934825</v>
       </c>
       <c r="F29">
-        <v>0.02020045742173685</v>
+        <v>0.2687727658522883</v>
       </c>
       <c r="G29">
-        <v>0.001025741442042693</v>
+        <v>0.001656248084934825</v>
       </c>
       <c r="H29">
-        <v>0.0047754191693442</v>
+        <v>0.0076598064977159</v>
       </c>
       <c r="I29">
-        <v>0.02755346085362061</v>
+        <v>0.1463826437644057</v>
+      </c>
+      <c r="J29">
+        <v>0.004894996826940176</v>
       </c>
       <c r="K29">
-        <v>0.003764684276447662</v>
+        <v>0.02377360119881206</v>
       </c>
       <c r="L29">
-        <v>0.02020530633956697</v>
+        <v>0.001992522574044744</v>
       </c>
       <c r="M29">
-        <v>0.002462356243694158</v>
+        <v>0.002036920547816535</v>
       </c>
       <c r="N29">
-        <v>0.002036920547816535</v>
+        <v>0.02355331818639324</v>
       </c>
       <c r="O29">
-        <v>0.02355331818639324</v>
+        <v>1.583495248307467</v>
       </c>
       <c r="P29">
-        <v>1.583495248307467</v>
-      </c>
-      <c r="Q29">
-        <v>0.0003172085646312437</v>
+        <v>0.001776467475526326</v>
       </c>
     </row>
   </sheetData>
